--- a/testbook1.xlsx
+++ b/testbook1.xlsx
@@ -441,7 +441,7 @@
   <dimension ref="A1:F1584"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCellId="1" sqref="A2:XFD2 A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
